--- a/Inputs.xlsx
+++ b/Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita.khatwani\Documents\UCSB\District sytem - Engineering model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0486AC56-E69C-4E27-9EA4-91D002524BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C555083-EA8A-46CC-9BD1-1D9A416D559C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9696" yWindow="144" windowWidth="13440" windowHeight="12168" tabRatio="775" firstSheet="1" activeTab="8" xr2:uid="{7451FC21-CD09-48A1-83A3-A2D1933E8B8D}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="775" firstSheet="1" activeTab="3" xr2:uid="{7451FC21-CD09-48A1-83A3-A2D1933E8B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,12 +457,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,7 +465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +486,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -537,7 +537,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
@@ -549,19 +549,18 @@
     <xf numFmtId="3" fontId="4" fillId="3" borderId="2" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="5"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calculation" xfId="5" builtinId="22"/>
@@ -572,68 +571,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1303,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B520A226-2BC6-4BB2-8665-38A3B50F57F9}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -1330,12 +1268,11 @@
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1350,8 +1287,7 @@
       <c r="D3" s="8">
         <v>24679937.927443266</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1366,8 +1302,7 @@
       <c r="D4" s="9">
         <v>30</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="18"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1382,15 +1317,13 @@
       <c r="D5" s="9">
         <v>25</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1405,8 +1338,7 @@
       <c r="D7" s="4">
         <v>15</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1421,8 +1353,7 @@
       <c r="D8" s="4">
         <v>20</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1437,8 +1368,7 @@
       <c r="D9" s="4">
         <v>30</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="19"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1453,12 +1383,10 @@
       <c r="D10" s="4">
         <v>40</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1473,8 +1401,7 @@
       <c r="D12" s="8">
         <v>45654594.988042854</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1489,8 +1416,7 @@
       <c r="D13" s="9">
         <v>16</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1505,12 +1431,10 @@
       <c r="D14" s="9">
         <v>8</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1525,8 +1449,7 @@
       <c r="D16" s="8">
         <v>7121862.3956429102</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1541,8 +1464,7 @@
       <c r="D17" s="4">
         <v>20</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1557,8 +1479,7 @@
       <c r="D18" s="4">
         <v>5</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="19"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1573,12 +1494,7 @@
       <c r="D19" s="8">
         <v>1851684.2228671566</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="G19" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1968,7 +1884,7 @@
       <c r="C31" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="18">
         <v>0.08</v>
       </c>
     </row>
@@ -1982,7 +1898,7 @@
       <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="18">
         <v>0.08</v>
       </c>
     </row>
@@ -2076,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5554F2-93E7-41E4-BF43-7E05DFD57111}">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2167,11 +2083,11 @@
       <c r="AA1">
         <v>23</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -2181,84 +2097,81 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>1</v>
-      </c>
-      <c r="R2" s="4">
-        <v>1</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4">
-        <v>0</v>
-      </c>
-      <c r="V2" s="4">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4">
-        <v>0</v>
-      </c>
-      <c r="X2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="22">
-        <f>SUM(D2:AA2)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+      <c r="F2" s="22">
+        <v>0</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0</v>
+      </c>
+      <c r="H2" s="22">
+        <v>0</v>
+      </c>
+      <c r="I2" s="22">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22">
+        <v>0</v>
+      </c>
+      <c r="K2" s="22">
+        <v>0</v>
+      </c>
+      <c r="L2" s="22">
+        <v>0</v>
+      </c>
+      <c r="M2" s="22">
+        <v>1</v>
+      </c>
+      <c r="N2" s="22">
+        <v>1</v>
+      </c>
+      <c r="O2" s="22">
+        <v>1</v>
+      </c>
+      <c r="P2" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>1</v>
+      </c>
+      <c r="R2" s="22">
+        <v>1</v>
+      </c>
+      <c r="S2" s="22">
+        <v>1</v>
+      </c>
+      <c r="T2" s="22">
+        <v>1</v>
+      </c>
+      <c r="U2" s="22">
+        <v>1</v>
+      </c>
+      <c r="V2" s="22">
+        <v>1</v>
+      </c>
+      <c r="W2" s="22">
+        <v>1</v>
+      </c>
+      <c r="X2" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -2268,84 +2181,81 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>1</v>
-      </c>
-      <c r="R3" s="4">
-        <v>1</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="22">
-        <f t="shared" ref="AB3:AB13" si="0">SUM(D3:AA3)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="22">
+        <v>1</v>
+      </c>
+      <c r="N3" s="22">
+        <v>1</v>
+      </c>
+      <c r="O3" s="22">
+        <v>1</v>
+      </c>
+      <c r="P3" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>1</v>
+      </c>
+      <c r="R3" s="22">
+        <v>1</v>
+      </c>
+      <c r="S3" s="22">
+        <v>1</v>
+      </c>
+      <c r="T3" s="22">
+        <v>1</v>
+      </c>
+      <c r="U3" s="22">
+        <v>1</v>
+      </c>
+      <c r="V3" s="22">
+        <v>1</v>
+      </c>
+      <c r="W3" s="22">
+        <v>1</v>
+      </c>
+      <c r="X3" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="20"/>
+    </row>
+    <row r="4" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -2355,84 +2265,81 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4">
-        <v>1</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22">
+        <v>1</v>
+      </c>
+      <c r="N4" s="22">
+        <v>1</v>
+      </c>
+      <c r="O4" s="22">
+        <v>1</v>
+      </c>
+      <c r="P4" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>1</v>
+      </c>
+      <c r="R4" s="22">
+        <v>1</v>
+      </c>
+      <c r="S4" s="22">
+        <v>1</v>
+      </c>
+      <c r="T4" s="22">
+        <v>1</v>
+      </c>
+      <c r="U4" s="22">
+        <v>1</v>
+      </c>
+      <c r="V4" s="22">
+        <v>1</v>
+      </c>
+      <c r="W4" s="22">
+        <v>1</v>
+      </c>
+      <c r="X4" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="20"/>
+    </row>
+    <row r="5" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -2442,84 +2349,81 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>1</v>
-      </c>
-      <c r="R5" s="4">
-        <v>1</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0</v>
-      </c>
-      <c r="X5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0</v>
+      </c>
+      <c r="M5" s="22">
+        <v>1</v>
+      </c>
+      <c r="N5" s="22">
+        <v>1</v>
+      </c>
+      <c r="O5" s="22">
+        <v>1</v>
+      </c>
+      <c r="P5" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>1</v>
+      </c>
+      <c r="R5" s="22">
+        <v>1</v>
+      </c>
+      <c r="S5" s="22">
+        <v>1</v>
+      </c>
+      <c r="T5" s="22">
+        <v>1</v>
+      </c>
+      <c r="U5" s="22">
+        <v>1</v>
+      </c>
+      <c r="V5" s="22">
+        <v>1</v>
+      </c>
+      <c r="W5" s="22">
+        <v>1</v>
+      </c>
+      <c r="X5" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="20"/>
+    </row>
+    <row r="6" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -2529,84 +2433,81 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>1</v>
-      </c>
-      <c r="R6" s="4">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>1</v>
+      </c>
+      <c r="N6" s="22">
+        <v>1</v>
+      </c>
+      <c r="O6" s="22">
+        <v>1</v>
+      </c>
+      <c r="P6" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>1</v>
+      </c>
+      <c r="R6" s="22">
+        <v>1</v>
+      </c>
+      <c r="S6" s="22">
+        <v>1</v>
+      </c>
+      <c r="T6" s="22">
+        <v>1</v>
+      </c>
+      <c r="U6" s="22">
+        <v>1</v>
+      </c>
+      <c r="V6" s="22">
+        <v>1</v>
+      </c>
+      <c r="W6" s="22">
+        <v>1</v>
+      </c>
+      <c r="X6" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="20"/>
+    </row>
+    <row r="7" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -2616,84 +2517,81 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4">
-        <v>1</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0</v>
-      </c>
-      <c r="V7" s="4">
-        <v>0</v>
-      </c>
-      <c r="W7" s="4">
-        <v>0</v>
-      </c>
-      <c r="X7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
+        <v>1</v>
+      </c>
+      <c r="N7" s="22">
+        <v>1</v>
+      </c>
+      <c r="O7" s="22">
+        <v>1</v>
+      </c>
+      <c r="P7" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>1</v>
+      </c>
+      <c r="R7" s="22">
+        <v>1</v>
+      </c>
+      <c r="S7" s="22">
+        <v>1</v>
+      </c>
+      <c r="T7" s="22">
+        <v>1</v>
+      </c>
+      <c r="U7" s="22">
+        <v>1</v>
+      </c>
+      <c r="V7" s="22">
+        <v>1</v>
+      </c>
+      <c r="W7" s="22">
+        <v>1</v>
+      </c>
+      <c r="X7" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="20"/>
+    </row>
+    <row r="8" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -2703,84 +2601,81 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>1</v>
-      </c>
-      <c r="R8" s="4">
-        <v>1</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4">
-        <v>0</v>
-      </c>
-      <c r="W8" s="4">
-        <v>0</v>
-      </c>
-      <c r="X8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22">
+        <v>1</v>
+      </c>
+      <c r="N8" s="22">
+        <v>1</v>
+      </c>
+      <c r="O8" s="22">
+        <v>1</v>
+      </c>
+      <c r="P8" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>1</v>
+      </c>
+      <c r="R8" s="22">
+        <v>1</v>
+      </c>
+      <c r="S8" s="22">
+        <v>1</v>
+      </c>
+      <c r="T8" s="22">
+        <v>1</v>
+      </c>
+      <c r="U8" s="22">
+        <v>1</v>
+      </c>
+      <c r="V8" s="22">
+        <v>1</v>
+      </c>
+      <c r="W8" s="22">
+        <v>1</v>
+      </c>
+      <c r="X8" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="20"/>
+    </row>
+    <row r="9" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -2790,84 +2685,81 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>1</v>
-      </c>
-      <c r="R9" s="4">
-        <v>1</v>
-      </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D9" s="22">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="22">
+        <v>1</v>
+      </c>
+      <c r="N9" s="22">
+        <v>1</v>
+      </c>
+      <c r="O9" s="22">
+        <v>1</v>
+      </c>
+      <c r="P9" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>1</v>
+      </c>
+      <c r="R9" s="22">
+        <v>1</v>
+      </c>
+      <c r="S9" s="22">
+        <v>1</v>
+      </c>
+      <c r="T9" s="22">
+        <v>1</v>
+      </c>
+      <c r="U9" s="22">
+        <v>1</v>
+      </c>
+      <c r="V9" s="22">
+        <v>1</v>
+      </c>
+      <c r="W9" s="22">
+        <v>1</v>
+      </c>
+      <c r="X9" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="20"/>
+    </row>
+    <row r="10" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -2877,84 +2769,81 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>1</v>
-      </c>
-      <c r="R10" s="4">
-        <v>1</v>
-      </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0</v>
+      </c>
+      <c r="M10" s="22">
+        <v>1</v>
+      </c>
+      <c r="N10" s="22">
+        <v>1</v>
+      </c>
+      <c r="O10" s="22">
+        <v>1</v>
+      </c>
+      <c r="P10" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>1</v>
+      </c>
+      <c r="R10" s="22">
+        <v>1</v>
+      </c>
+      <c r="S10" s="22">
+        <v>1</v>
+      </c>
+      <c r="T10" s="22">
+        <v>1</v>
+      </c>
+      <c r="U10" s="22">
+        <v>1</v>
+      </c>
+      <c r="V10" s="22">
+        <v>1</v>
+      </c>
+      <c r="W10" s="22">
+        <v>1</v>
+      </c>
+      <c r="X10" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="20"/>
+    </row>
+    <row r="11" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -2964,84 +2853,81 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>1</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4">
-        <v>1</v>
-      </c>
-      <c r="P11" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>1</v>
-      </c>
-      <c r="R11" s="4">
-        <v>1</v>
-      </c>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4">
-        <v>0</v>
-      </c>
-      <c r="V11" s="4">
-        <v>0</v>
-      </c>
-      <c r="W11" s="4">
-        <v>0</v>
-      </c>
-      <c r="X11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D11" s="22">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22">
+        <v>0</v>
+      </c>
+      <c r="M11" s="22">
+        <v>1</v>
+      </c>
+      <c r="N11" s="22">
+        <v>1</v>
+      </c>
+      <c r="O11" s="22">
+        <v>1</v>
+      </c>
+      <c r="P11" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>1</v>
+      </c>
+      <c r="R11" s="22">
+        <v>1</v>
+      </c>
+      <c r="S11" s="22">
+        <v>1</v>
+      </c>
+      <c r="T11" s="22">
+        <v>1</v>
+      </c>
+      <c r="U11" s="22">
+        <v>1</v>
+      </c>
+      <c r="V11" s="22">
+        <v>1</v>
+      </c>
+      <c r="W11" s="22">
+        <v>1</v>
+      </c>
+      <c r="X11" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="20"/>
+    </row>
+    <row r="12" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -3051,84 +2937,81 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>1</v>
-      </c>
-      <c r="R12" s="4">
-        <v>1</v>
-      </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4">
-        <v>0</v>
-      </c>
-      <c r="V12" s="4">
-        <v>0</v>
-      </c>
-      <c r="W12" s="4">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0</v>
+      </c>
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="22">
+        <v>0</v>
+      </c>
+      <c r="M12" s="22">
+        <v>1</v>
+      </c>
+      <c r="N12" s="22">
+        <v>1</v>
+      </c>
+      <c r="O12" s="22">
+        <v>1</v>
+      </c>
+      <c r="P12" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>1</v>
+      </c>
+      <c r="R12" s="22">
+        <v>1</v>
+      </c>
+      <c r="S12" s="22">
+        <v>1</v>
+      </c>
+      <c r="T12" s="22">
+        <v>1</v>
+      </c>
+      <c r="U12" s="22">
+        <v>1</v>
+      </c>
+      <c r="V12" s="22">
+        <v>1</v>
+      </c>
+      <c r="W12" s="22">
+        <v>1</v>
+      </c>
+      <c r="X12" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="20"/>
+    </row>
+    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -3138,456 +3021,420 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4">
-        <v>1</v>
-      </c>
-      <c r="P13" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>1</v>
-      </c>
-      <c r="R13" s="4">
-        <v>1</v>
-      </c>
-      <c r="S13" s="4">
-        <v>0</v>
-      </c>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4">
-        <v>0</v>
-      </c>
-      <c r="V13" s="4">
-        <v>0</v>
-      </c>
-      <c r="W13" s="4">
-        <v>0</v>
-      </c>
-      <c r="X13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
+      <c r="D13" s="22">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <v>0</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0</v>
+      </c>
+      <c r="M13" s="22">
+        <v>1</v>
+      </c>
+      <c r="N13" s="22">
+        <v>1</v>
+      </c>
+      <c r="O13" s="22">
+        <v>1</v>
+      </c>
+      <c r="P13" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>1</v>
+      </c>
+      <c r="R13" s="22">
+        <v>1</v>
+      </c>
+      <c r="S13" s="22">
+        <v>1</v>
+      </c>
+      <c r="T13" s="22">
+        <v>1</v>
+      </c>
+      <c r="U13" s="22">
+        <v>1</v>
+      </c>
+      <c r="V13" s="22">
+        <v>1</v>
+      </c>
+      <c r="W13" s="22">
+        <v>1</v>
+      </c>
+      <c r="X13" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="20"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="AB14" s="21"/>
+      <c r="AB14" s="19"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="23"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="21"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="23"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="21"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="23"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="21"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="23"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="21"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="23"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="21"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="23"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="21"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="23"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="21"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="23"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="21"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="23"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="21"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="23"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="21"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="23"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="21"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="23"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="21"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:AA13">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3Signs">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D15:AA26">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Signs">
@@ -3605,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3439B7E-F3ED-4479-BBF8-EC17F680D89F}">
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3696,11 +3543,11 @@
       <c r="AA1">
         <v>23</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -3710,84 +3557,81 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4">
-        <v>0</v>
-      </c>
-      <c r="V2" s="4">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4">
-        <v>0</v>
-      </c>
-      <c r="X2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="22">
-        <f>SUM(D2:AA2)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D2" s="22">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22">
+        <v>1</v>
+      </c>
+      <c r="H2" s="22">
+        <v>1</v>
+      </c>
+      <c r="I2" s="22">
+        <v>1</v>
+      </c>
+      <c r="J2" s="22">
+        <v>1</v>
+      </c>
+      <c r="K2" s="22">
+        <v>0</v>
+      </c>
+      <c r="L2" s="22">
+        <v>0</v>
+      </c>
+      <c r="M2" s="22">
+        <v>0</v>
+      </c>
+      <c r="N2" s="22">
+        <v>0</v>
+      </c>
+      <c r="O2" s="22">
+        <v>0</v>
+      </c>
+      <c r="P2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>0</v>
+      </c>
+      <c r="R2" s="22">
+        <v>0</v>
+      </c>
+      <c r="S2" s="22">
+        <v>0</v>
+      </c>
+      <c r="T2" s="22">
+        <v>0</v>
+      </c>
+      <c r="U2" s="22">
+        <v>0</v>
+      </c>
+      <c r="V2" s="22">
+        <v>0</v>
+      </c>
+      <c r="W2" s="22">
+        <v>0</v>
+      </c>
+      <c r="X2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -3797,84 +3641,81 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="22">
-        <f t="shared" ref="AB3:AB13" si="0">SUM(D3:AA3)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="22">
+        <v>1</v>
+      </c>
+      <c r="G3" s="22">
+        <v>1</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1</v>
+      </c>
+      <c r="I3" s="22">
+        <v>1</v>
+      </c>
+      <c r="J3" s="22">
+        <v>1</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22">
+        <v>0</v>
+      </c>
+      <c r="O3" s="22">
+        <v>0</v>
+      </c>
+      <c r="P3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>0</v>
+      </c>
+      <c r="R3" s="22">
+        <v>0</v>
+      </c>
+      <c r="S3" s="22">
+        <v>0</v>
+      </c>
+      <c r="T3" s="22">
+        <v>0</v>
+      </c>
+      <c r="U3" s="22">
+        <v>0</v>
+      </c>
+      <c r="V3" s="22">
+        <v>0</v>
+      </c>
+      <c r="W3" s="22">
+        <v>0</v>
+      </c>
+      <c r="X3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="20"/>
+    </row>
+    <row r="4" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -3884,84 +3725,81 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="22">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D4" s="22">
+        <v>1</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22">
+        <v>1</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1</v>
+      </c>
+      <c r="I4" s="22">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22">
+        <v>1</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22">
+        <v>0</v>
+      </c>
+      <c r="O4" s="22">
+        <v>0</v>
+      </c>
+      <c r="P4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>0</v>
+      </c>
+      <c r="R4" s="22">
+        <v>0</v>
+      </c>
+      <c r="S4" s="22">
+        <v>0</v>
+      </c>
+      <c r="T4" s="22">
+        <v>0</v>
+      </c>
+      <c r="U4" s="22">
+        <v>0</v>
+      </c>
+      <c r="V4" s="22">
+        <v>0</v>
+      </c>
+      <c r="W4" s="22">
+        <v>0</v>
+      </c>
+      <c r="X4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="20"/>
+    </row>
+    <row r="5" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -3971,84 +3809,81 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0</v>
-      </c>
-      <c r="X5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="22">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1</v>
+      </c>
+      <c r="I5" s="22">
+        <v>1</v>
+      </c>
+      <c r="J5" s="22">
+        <v>1</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0</v>
+      </c>
+      <c r="M5" s="22">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0</v>
+      </c>
+      <c r="O5" s="22">
+        <v>0</v>
+      </c>
+      <c r="P5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>0</v>
+      </c>
+      <c r="R5" s="22">
+        <v>0</v>
+      </c>
+      <c r="S5" s="22">
+        <v>0</v>
+      </c>
+      <c r="T5" s="22">
+        <v>0</v>
+      </c>
+      <c r="U5" s="22">
+        <v>0</v>
+      </c>
+      <c r="V5" s="22">
+        <v>0</v>
+      </c>
+      <c r="W5" s="22">
+        <v>0</v>
+      </c>
+      <c r="X5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="20"/>
+    </row>
+    <row r="6" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -4058,84 +3893,81 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="22">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1</v>
+      </c>
+      <c r="I6" s="22">
+        <v>1</v>
+      </c>
+      <c r="J6" s="22">
+        <v>1</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+      <c r="S6" s="22">
+        <v>0</v>
+      </c>
+      <c r="T6" s="22">
+        <v>0</v>
+      </c>
+      <c r="U6" s="22">
+        <v>0</v>
+      </c>
+      <c r="V6" s="22">
+        <v>0</v>
+      </c>
+      <c r="W6" s="22">
+        <v>0</v>
+      </c>
+      <c r="X6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="20"/>
+    </row>
+    <row r="7" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -4145,84 +3977,81 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0</v>
-      </c>
-      <c r="V7" s="4">
-        <v>0</v>
-      </c>
-      <c r="W7" s="4">
-        <v>0</v>
-      </c>
-      <c r="X7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="22">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22">
+        <v>1</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1</v>
+      </c>
+      <c r="I7" s="22">
+        <v>1</v>
+      </c>
+      <c r="J7" s="22">
+        <v>1</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+      <c r="S7" s="22">
+        <v>0</v>
+      </c>
+      <c r="T7" s="22">
+        <v>0</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0</v>
+      </c>
+      <c r="V7" s="22">
+        <v>0</v>
+      </c>
+      <c r="W7" s="22">
+        <v>0</v>
+      </c>
+      <c r="X7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="20"/>
+    </row>
+    <row r="8" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -4232,84 +4061,81 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4">
-        <v>0</v>
-      </c>
-      <c r="W8" s="4">
-        <v>0</v>
-      </c>
-      <c r="X8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="22">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
+      <c r="I8" s="22">
+        <v>1</v>
+      </c>
+      <c r="J8" s="22">
+        <v>1</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="22">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0</v>
+      </c>
+      <c r="S8" s="22">
+        <v>0</v>
+      </c>
+      <c r="T8" s="22">
+        <v>0</v>
+      </c>
+      <c r="U8" s="22">
+        <v>0</v>
+      </c>
+      <c r="V8" s="22">
+        <v>0</v>
+      </c>
+      <c r="W8" s="22">
+        <v>0</v>
+      </c>
+      <c r="X8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="20"/>
+    </row>
+    <row r="9" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -4319,84 +4145,81 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="22">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D9" s="22">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1</v>
+      </c>
+      <c r="I9" s="22">
+        <v>1</v>
+      </c>
+      <c r="J9" s="22">
+        <v>1</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="22">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9" s="22">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>0</v>
+      </c>
+      <c r="R9" s="22">
+        <v>0</v>
+      </c>
+      <c r="S9" s="22">
+        <v>0</v>
+      </c>
+      <c r="T9" s="22">
+        <v>0</v>
+      </c>
+      <c r="U9" s="22">
+        <v>0</v>
+      </c>
+      <c r="V9" s="22">
+        <v>0</v>
+      </c>
+      <c r="W9" s="22">
+        <v>0</v>
+      </c>
+      <c r="X9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="20"/>
+    </row>
+    <row r="10" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -4406,84 +4229,81 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="22">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1</v>
+      </c>
+      <c r="I10" s="22">
+        <v>1</v>
+      </c>
+      <c r="J10" s="22">
+        <v>1</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0</v>
+      </c>
+      <c r="M10" s="22">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22">
+        <v>0</v>
+      </c>
+      <c r="O10" s="22">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>0</v>
+      </c>
+      <c r="R10" s="22">
+        <v>0</v>
+      </c>
+      <c r="S10" s="22">
+        <v>0</v>
+      </c>
+      <c r="T10" s="22">
+        <v>0</v>
+      </c>
+      <c r="U10" s="22">
+        <v>0</v>
+      </c>
+      <c r="V10" s="22">
+        <v>0</v>
+      </c>
+      <c r="W10" s="22">
+        <v>0</v>
+      </c>
+      <c r="X10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="20"/>
+    </row>
+    <row r="11" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -4493,84 +4313,81 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4">
-        <v>0</v>
-      </c>
-      <c r="V11" s="4">
-        <v>0</v>
-      </c>
-      <c r="W11" s="4">
-        <v>0</v>
-      </c>
-      <c r="X11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="22">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D11" s="22">
+        <v>1</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="H11" s="22">
+        <v>1</v>
+      </c>
+      <c r="I11" s="22">
+        <v>1</v>
+      </c>
+      <c r="J11" s="22">
+        <v>1</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22">
+        <v>0</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0</v>
+      </c>
+      <c r="P11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22">
+        <v>0</v>
+      </c>
+      <c r="S11" s="22">
+        <v>0</v>
+      </c>
+      <c r="T11" s="22">
+        <v>0</v>
+      </c>
+      <c r="U11" s="22">
+        <v>0</v>
+      </c>
+      <c r="V11" s="22">
+        <v>0</v>
+      </c>
+      <c r="W11" s="22">
+        <v>0</v>
+      </c>
+      <c r="X11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="20"/>
+    </row>
+    <row r="12" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -4580,84 +4397,81 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4">
-        <v>0</v>
-      </c>
-      <c r="V12" s="4">
-        <v>0</v>
-      </c>
-      <c r="W12" s="4">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="22">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D12" s="22">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22">
+        <v>1</v>
+      </c>
+      <c r="I12" s="22">
+        <v>1</v>
+      </c>
+      <c r="J12" s="22">
+        <v>1</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="22">
+        <v>0</v>
+      </c>
+      <c r="M12" s="22">
+        <v>0</v>
+      </c>
+      <c r="N12" s="22">
+        <v>0</v>
+      </c>
+      <c r="O12" s="22">
+        <v>0</v>
+      </c>
+      <c r="P12" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>0</v>
+      </c>
+      <c r="R12" s="22">
+        <v>0</v>
+      </c>
+      <c r="S12" s="22">
+        <v>0</v>
+      </c>
+      <c r="T12" s="22">
+        <v>0</v>
+      </c>
+      <c r="U12" s="22">
+        <v>0</v>
+      </c>
+      <c r="V12" s="22">
+        <v>0</v>
+      </c>
+      <c r="W12" s="22">
+        <v>0</v>
+      </c>
+      <c r="X12" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="20"/>
+    </row>
+    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -4667,96 +4481,84 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
-        <v>0</v>
-      </c>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4">
-        <v>0</v>
-      </c>
-      <c r="V13" s="4">
-        <v>0</v>
-      </c>
-      <c r="W13" s="4">
-        <v>0</v>
-      </c>
-      <c r="X13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="22">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
+      <c r="D13" s="22">
+        <v>1</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22">
+        <v>1</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1</v>
+      </c>
+      <c r="I13" s="22">
+        <v>1</v>
+      </c>
+      <c r="J13" s="22">
+        <v>1</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0</v>
+      </c>
+      <c r="M13" s="22">
+        <v>0</v>
+      </c>
+      <c r="N13" s="22">
+        <v>0</v>
+      </c>
+      <c r="O13" s="22">
+        <v>0</v>
+      </c>
+      <c r="P13" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>0</v>
+      </c>
+      <c r="R13" s="22">
+        <v>0</v>
+      </c>
+      <c r="S13" s="22">
+        <v>0</v>
+      </c>
+      <c r="T13" s="22">
+        <v>0</v>
+      </c>
+      <c r="U13" s="22">
+        <v>0</v>
+      </c>
+      <c r="V13" s="22">
+        <v>0</v>
+      </c>
+      <c r="W13" s="22">
+        <v>0</v>
+      </c>
+      <c r="X13" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="20"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="AB14" s="21"/>
+      <c r="AB14" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:AA13">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Signs">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5742,8 +5544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B5F63-9696-47F3-B8C3-53EC0FD9EA7C}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5788,11 +5590,11 @@
       <c r="D2" s="4">
         <v>70</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="4">
         <v>60</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -5807,11 +5609,11 @@
       <c r="D3" s="4">
         <v>65</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="4">
         <v>55</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -5826,11 +5628,11 @@
       <c r="D4" s="4">
         <v>60</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="4">
         <v>50</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -5845,11 +5647,11 @@
       <c r="D5" s="4">
         <v>62</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="4">
         <v>52</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -5864,11 +5666,11 @@
       <c r="D6" s="4">
         <v>65</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="4">
         <v>55</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -5883,11 +5685,11 @@
       <c r="D7" s="4">
         <v>70</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="4">
         <v>60</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -5902,11 +5704,11 @@
       <c r="D8" s="4">
         <v>75</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="4">
         <v>65</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -5921,11 +5723,11 @@
       <c r="D9" s="4">
         <v>80</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="4">
         <v>70</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -5940,11 +5742,11 @@
       <c r="D10" s="4">
         <v>84</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="4">
         <v>74</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -5959,11 +5761,11 @@
       <c r="D11" s="4">
         <v>85</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="4">
         <v>75</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -5978,11 +5780,11 @@
       <c r="D12" s="4">
         <v>80</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="4">
         <v>70</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -5997,11 +5799,11 @@
       <c r="D13" s="4">
         <v>75</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="4">
         <v>65</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs.xlsx
+++ b/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita.khatwani\Documents\UCSB\District sytem - Engineering model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C555083-EA8A-46CC-9BD1-1D9A416D559C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6D225A-540A-4DC0-93BA-26B80357C6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="775" firstSheet="1" activeTab="3" xr2:uid="{7451FC21-CD09-48A1-83A3-A2D1933E8B8D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="775" activeTab="8" xr2:uid="{7451FC21-CD09-48A1-83A3-A2D1933E8B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -906,7 +906,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5">
-        <v>40000000</v>
+        <v>70000000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,7 +1036,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="5">
-        <v>30000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -1078,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="5">
-        <v>10000000</v>
+        <v>45000000</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -1120,7 +1120,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="5">
-        <v>60000000</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1174,7 +1174,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="5">
-        <v>100000000</v>
+        <v>35000000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="5">
-        <v>0</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1244,7 +1244,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,9 +1284,7 @@
       <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8">
-        <v>24679937.927443266</v>
-      </c>
+      <c r="D3" s="8"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1398,9 +1396,7 @@
       <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="8">
-        <v>45654594.988042854</v>
-      </c>
+      <c r="D12" s="8"/>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1446,9 +1442,7 @@
       <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="8">
-        <v>7121862.3956429102</v>
-      </c>
+      <c r="D16" s="8"/>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1491,9 +1485,7 @@
       <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="8">
-        <v>1851684.2228671566</v>
-      </c>
+      <c r="D19" s="8"/>
       <c r="G19" s="15"/>
     </row>
   </sheetData>
@@ -1506,7 +1498,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1541,7 +1533,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="6">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1633,7 +1625,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="6">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1781,7 +1773,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1795,7 +1787,7 @@
         <v>62</v>
       </c>
       <c r="D23" s="4">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1992,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5554F2-93E7-41E4-BF43-7E05DFD57111}">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3452,8 +3444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3439B7E-F3ED-4479-BBF8-EC17F680D89F}">
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18:Q19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4568,7 +4560,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5007,8 +4999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B9116D-48DE-48B5-A293-D81632CB0462}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5544,8 +5536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B5F63-9696-47F3-B8C3-53EC0FD9EA7C}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Inputs.xlsx
+++ b/Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita.khatwani\Documents\UCSB\District sytem - Engineering model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita.khatwani\Documents\UCSB\District sytem - Engineering model\District system - Engineering model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6D225A-540A-4DC0-93BA-26B80357C6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B98AAB7-2D5C-4A74-8C20-72E58B1EAB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="775" activeTab="8" xr2:uid="{7451FC21-CD09-48A1-83A3-A2D1933E8B8D}"/>
+    <workbookView xWindow="8928" yWindow="0" windowWidth="10128" windowHeight="12252" tabRatio="775" activeTab="2" xr2:uid="{7451FC21-CD09-48A1-83A3-A2D1933E8B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03319201-9001-4EFB-9DD8-4DA3C0F3F8CD}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5">
-        <v>70000000</v>
+        <v>35000000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,7 +1036,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="5">
-        <v>50000000</v>
+        <v>28000000</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -1050,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -1064,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1078,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="5">
-        <v>45000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -1174,7 +1174,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="5">
-        <v>35000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="5">
-        <v>50000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1202,7 +1202,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="5">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1497,7 +1497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76671B1F-75D9-49FB-9D16-83BD5F7182E9}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -5536,7 +5536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B5F63-9696-47F3-B8C3-53EC0FD9EA7C}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>

--- a/Inputs.xlsx
+++ b/Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita.khatwani\Documents\UCSB\District sytem - Engineering model\District system - Engineering model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita.khatwani\Documents\UCSB\District sytem - Engineering model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B98AAB7-2D5C-4A74-8C20-72E58B1EAB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6D225A-540A-4DC0-93BA-26B80357C6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8928" yWindow="0" windowWidth="10128" windowHeight="12252" tabRatio="775" activeTab="2" xr2:uid="{7451FC21-CD09-48A1-83A3-A2D1933E8B8D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="775" activeTab="8" xr2:uid="{7451FC21-CD09-48A1-83A3-A2D1933E8B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03319201-9001-4EFB-9DD8-4DA3C0F3F8CD}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5">
-        <v>35000000</v>
+        <v>70000000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,7 +1036,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="5">
-        <v>28000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -1050,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -1064,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1078,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="5">
-        <v>3000000</v>
+        <v>45000000</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -1174,7 +1174,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="5">
-        <v>20000000</v>
+        <v>35000000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="5">
-        <v>1000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1202,7 +1202,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="5">
-        <v>1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1497,7 +1497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76671B1F-75D9-49FB-9D16-83BD5F7182E9}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -5536,7 +5536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B5F63-9696-47F3-B8C3-53EC0FD9EA7C}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
